--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3082.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3082.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.113844757049103</v>
+        <v>1.282155871391296</v>
       </c>
       <c r="B1">
-        <v>2.376078813813331</v>
+        <v>2.256068468093872</v>
       </c>
       <c r="C1">
-        <v>4.25962550675758</v>
+        <v>4.74271821975708</v>
       </c>
       <c r="D1">
-        <v>3.665793447691661</v>
+        <v>3.05150318145752</v>
       </c>
       <c r="E1">
-        <v>1.283511510916244</v>
+        <v>1.345105290412903</v>
       </c>
     </row>
   </sheetData>
